--- a/data/trans_camb/P14_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,88</t>
+          <t>24,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,78</t>
+          <t>21,42</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 26,03</t>
+          <t>11,93; 26,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 32,74</t>
+          <t>17,01; 31,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 26,7</t>
+          <t>16,79; 26,5</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2057,72%</t>
+          <t>1847,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1002,0%</t>
+          <t>955,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1305,6%</t>
+          <t>1227,58%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>330,83; 4374,64</t>
+          <t>275,21; 3874,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>505,22; 3768,76</t>
+          <t>451,71; 3837,55</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,47</t>
+          <t>27,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,95</t>
+          <t>23,15</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 25,76</t>
+          <t>13,05; 26,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,49; 34,43</t>
+          <t>21,72; 34,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 27,47</t>
+          <t>18,37; 28,13</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1066,85%</t>
+          <t>1080,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>891,87%</t>
+          <t>932,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>957,51%</t>
+          <t>990,3%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>309,93; 4863,04</t>
+          <t>263,68; 4730,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>340,77; 2816,34</t>
+          <t>381,33; 2779,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>422,8; 2153,77</t>
+          <t>438,3; 2237,91</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,94</t>
+          <t>21,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>20,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,45</t>
+          <t>21,04</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 27,34</t>
+          <t>16,13; 27,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 24,25</t>
+          <t>15,21; 25,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 24,45</t>
+          <t>17,49; 25,03</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>690,39%</t>
+          <t>609,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>365,11%</t>
+          <t>536,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>487,56%</t>
+          <t>571,17%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>316,98; 1581,99</t>
+          <t>268,02; 1335,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,17; 809,62</t>
+          <t>248,7; 1179,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>223,6; 876,96</t>
+          <t>317,25; 981,64</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,44</t>
+          <t>19,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,03</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>18,47</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,11; 23,56</t>
+          <t>14,16; 25,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,83; 22,67</t>
+          <t>13,06; 22,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,97</t>
+          <t>14,83; 22,24</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>719,15%</t>
+          <t>773,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>656,77%</t>
+          <t>603,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>685,77%</t>
+          <t>681,1%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>288,16; 2023,65</t>
+          <t>288,51; 2092,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>281,64; 1477,84</t>
+          <t>262,83; 1288,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>368,92; 1241,36</t>
+          <t>396,51; 1219,14</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,08</t>
+          <t>16,7</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,21; 22,27</t>
+          <t>12,32; 22,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,96; 23,22</t>
+          <t>10,73; 22,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,34; 20,94</t>
+          <t>12,56; 20,87</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1181,06%</t>
+          <t>1178,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>388,96%</t>
+          <t>363,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>578,32%</t>
+          <t>554,81%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>306,62; 5176,46</t>
+          <t>296,21; 4159,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>116,29; 931,37</t>
+          <t>115,79; 852,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>285,2; 1194,04</t>
+          <t>247,63; 1137,05</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>9,5</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,55</t>
+          <t>1,3; 13,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,18; 17,64</t>
+          <t>4,22; 16,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,71</t>
+          <t>5,07; 13,72</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>131,67%</t>
+          <t>142,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>336,94%</t>
+          <t>280,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>229,09%</t>
+          <t>213,76%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,26; 461,42</t>
+          <t>5,67; 493,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>66,85; 937,59</t>
+          <t>18,17; 1030,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>75,44; 577,49</t>
+          <t>54,42; 470,98</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>19,28</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18,28</t>
+          <t>18,31</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>14,66; 19,65</t>
+          <t>14,97; 19,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,49</t>
+          <t>16,77; 21,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,01</t>
+          <t>16,79; 20,03</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>669,81%</t>
+          <t>667,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>529,03%</t>
+          <t>546,93%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>585,63%</t>
+          <t>597,2%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>434,58; 1019,38</t>
+          <t>418,14; 1028,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>324,3; 781,61</t>
+          <t>346,84; 778,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>437,51; 793,42</t>
+          <t>430,96; 784,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>18,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>24,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>21,42</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>18.5763840474485</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>24.73861593252568</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>21.62517133732702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 26,04</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>17,01; 31,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 26,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>11.88193272645254</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>17.62121504026667</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>16.8670620924276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1847,8%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>955,42%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1227,58%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.15345527974558</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.61755889909845</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.63081716231102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>275,21; 3874,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>451,71; 3837,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>19.92649866797435</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>9.869529731835518</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>12.68743763199896</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>27,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>2.73909445756151</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4.650590280886242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>13,05; 26,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>21,72; 34,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 28,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>38.47607523706499</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>40.04121887816206</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1080,73%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>932,12%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>990,3%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>19.70831876109188</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>27.24145742218286</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>23.30678087243321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>263,68; 4730,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>381,33; 2779,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>438,3; 2237,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>13.61993885321821</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>21.3482928462193</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>18.6642366964859</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>21,79</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>20,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>21,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.68651854994437</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>34.12877834102462</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>28.29625545233392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>16,13; 27,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>15,21; 25,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,49; 25,03</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>11.7274205931164</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>9.626506954358446</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>10.48994032352269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>609,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>536,62%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>571,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2.87961403489433</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>3.936472593604218</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>4.757968291427113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>268,02; 1335,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>248,7; 1179,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>317,25; 981,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>55.13046200159512</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>28.03554872505205</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>23.83190714498239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +771,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>19,58</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>17,41</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>18,47</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>21.49306812621575</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>19.53392812243156</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>20.49991787440216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>14,16; 25,72</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>13,06; 22,26</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>14,83; 22,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>15.86774883870107</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>13.84479951640452</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>16.65635576701167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>773,74%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>603,76%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>681,1%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>27.36281022881391</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.93069056942019</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>24.4273337374437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>288,51; 2092,28</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>262,83; 1288,83</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>396,51; 1219,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>6.611128715450097</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>4.262240329866306</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>5.225502384906263</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>16,96</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>16,48</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>2.916627647270796</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.364454116421128</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.436692407851071</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>12,32; 22,07</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>10,73; 22,11</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>12,56; 20,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>14.68456723840284</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>9.52189846221586</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>8.857991538708029</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1178,72%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>363,18%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>554,81%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>19.08053568843997</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>17.7307284736679</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>18.39148486671847</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>296,21; 4159,81</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>115,79; 852,79</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>247,63; 1137,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>13.72008223911813</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>13.33673714119548</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>14.79247141772852</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>11,38</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>25.1410898419515</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>22.750191978783</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>22.22307975874345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 13,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 16,88</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 13,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>7.338103382847552</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>6.451210351612467</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>6.870373751971835</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>142,41%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>280,49%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>213,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>2.644264119936514</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.875046475901361</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.882618448393891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 493,14</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>18,17; 1030,84</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>54,42; 470,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>19.03022594334308</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>13.71011907007962</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>12.14638038386716</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +983,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>18,31</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>16.81795685463815</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>16.88600517385368</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>16.83365912886299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>14,97; 19,8</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 21,15</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 20,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>12.18600893465835</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>11.14381342429187</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>12.70462806334518</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>667,65%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>546,93%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>597,2%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>21.94474692640748</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>22.65254266537603</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>21.0398265429786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>418,14; 1028,28</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>346,84; 778,52</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>430,96; 784,67</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>11.51346491875103</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>3.779246758951574</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>5.650276954154595</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>2.830893992557106</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>1.253045459923113</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>2.580191582550841</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>40.36284266342929</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>8.858495537999058</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>11.58088105404399</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>6.750243105158448</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>11.66297789359703</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>9.531466971629907</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8212347386601492</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>5.469346700434629</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>5.439458787916697</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>13.7865908551891</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>17.00050985069666</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>13.91016228350042</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>1.325693051500301</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>3.110229898166673</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>2.202088798920179</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0.01885420243768762</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0.4798898813904997</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0.76396250714057</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>4.766715250549227</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>11.20136706705375</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>4.909946887117418</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>17.33641050378916</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>19.1536291819039</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>18.26400938663724</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>14.91579035071881</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>16.77686090939872</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>16.75534278184448</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>19.68688482599353</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>21.3266746394813</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>20.02489162060892</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>6.741591819495184</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>5.427194996553725</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>5.965816524730216</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>4.262010756969167</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>3.537228466664803</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>4.307304299793118</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>10.31529861401789</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>7.504777426418855</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>7.936613535962351</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1299,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
